--- a/Andrew-annotations/MPC_Q3_2017.xlsx
+++ b/Andrew-annotations/MPC_Q3_2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A885B441-CE50-4E6E-A2A7-BD554194D066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED95042-9DBD-43FF-BB21-5336C4CC9BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:J38"/>
+    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="82" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,7 +744,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -770,13 +770,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -808,7 +808,7 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -834,10 +834,10 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -863,13 +863,13 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -898,7 +898,7 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -968,7 +968,7 @@
         <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -994,13 +994,13 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1032,7 +1032,7 @@
         <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -1058,13 +1058,13 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -1157,10 +1157,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1288,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1314,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -1340,22 +1340,22 @@
         <v>57</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="144" x14ac:dyDescent="0.3">
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1474,10 +1474,10 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -1503,7 +1503,7 @@
         <v>2</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>72</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1631,13 +1631,13 @@
         <v>2</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -1660,22 +1660,22 @@
         <v>82</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="259.2" x14ac:dyDescent="0.3">
@@ -1704,7 +1704,7 @@
         <v>2</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -1797,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -1832,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -1855,16 +1855,16 @@
         <v>2</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>2</v>
